--- a/data/trans_camb/P25_9-Edad-trans_camb.xlsx
+++ b/data/trans_camb/P25_9-Edad-trans_camb.xlsx
@@ -37,7 +37,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="11">
+  <borders count="12">
     <border>
       <left/>
       <right/>
@@ -63,6 +63,13 @@
       <right style="thin"/>
       <top style="thin"/>
       <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin"/>
+      <bottom style="thin"/>
       <diagonal/>
     </border>
     <border>
@@ -497,7 +504,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H31"/>
+  <dimension ref="A1:K32"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -516,6 +523,9 @@
     <col width="14" customWidth="1" min="6" max="6"/>
     <col width="14" customWidth="1" min="7" max="7"/>
     <col width="14" customWidth="1" min="8" max="8"/>
+    <col width="14" customWidth="1" min="9" max="9"/>
+    <col width="14" customWidth="1" min="10" max="10"/>
+    <col width="14" customWidth="1" min="11" max="11"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -531,18 +541,21 @@
         </is>
       </c>
       <c r="D1" s="3" t="n"/>
-      <c r="E1" s="3" t="inlineStr">
+      <c r="E1" s="3" t="n"/>
+      <c r="F1" s="3" t="inlineStr">
         <is>
           <t>Mujer</t>
         </is>
       </c>
-      <c r="F1" s="3" t="n"/>
-      <c r="G1" s="3" t="inlineStr">
+      <c r="G1" s="3" t="n"/>
+      <c r="H1" s="3" t="n"/>
+      <c r="I1" s="3" t="inlineStr">
         <is>
           <t>Total</t>
         </is>
       </c>
-      <c r="H1" s="3" t="n"/>
+      <c r="J1" s="3" t="n"/>
+      <c r="K1" s="3" t="n"/>
     </row>
     <row r="2">
       <c r="A2" s="4" t="n"/>
@@ -559,22 +572,37 @@
       </c>
       <c r="E2" s="3" t="inlineStr">
         <is>
+          <t>M5/M2</t>
+        </is>
+      </c>
+      <c r="F2" s="3" t="inlineStr">
+        <is>
           <t>M3/M2</t>
         </is>
       </c>
-      <c r="F2" s="3" t="inlineStr">
+      <c r="G2" s="3" t="inlineStr">
         <is>
           <t>M4/M2</t>
         </is>
       </c>
-      <c r="G2" s="3" t="inlineStr">
+      <c r="H2" s="3" t="inlineStr">
+        <is>
+          <t>M5/M2</t>
+        </is>
+      </c>
+      <c r="I2" s="3" t="inlineStr">
         <is>
           <t>M3/M2</t>
         </is>
       </c>
-      <c r="H2" s="3" t="inlineStr">
+      <c r="J2" s="3" t="inlineStr">
         <is>
           <t>M4/M2</t>
+        </is>
+      </c>
+      <c r="K2" s="3" t="inlineStr">
+        <is>
+          <t>M5/M2</t>
         </is>
       </c>
     </row>
@@ -587,6 +615,9 @@
       <c r="F3" s="2" t="n"/>
       <c r="G3" s="2" t="n"/>
       <c r="H3" s="2" t="n"/>
+      <c r="I3" s="2" t="n"/>
+      <c r="J3" s="2" t="n"/>
+      <c r="K3" s="2" t="n"/>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
@@ -601,7 +632,7 @@
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
-          <t>2,29</t>
+          <t>0,0</t>
         </is>
       </c>
       <c r="D4" s="2" t="inlineStr">
@@ -611,22 +642,37 @@
       </c>
       <c r="E4" s="2" t="inlineStr">
         <is>
-          <t>1,95</t>
+          <t>0,0</t>
         </is>
       </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
-          <t>-0,02</t>
+          <t>1,57</t>
         </is>
       </c>
       <c r="G4" s="2" t="inlineStr">
         <is>
-          <t>1,93</t>
+          <t>-2,72</t>
         </is>
       </c>
       <c r="H4" s="2" t="inlineStr">
         <is>
-          <t>-0,49</t>
+          <t>2,78</t>
+        </is>
+      </c>
+      <c r="I4" s="2" t="inlineStr">
+        <is>
+          <t>0,77</t>
+        </is>
+      </c>
+      <c r="J4" s="2" t="inlineStr">
+        <is>
+          <t>-1,51</t>
+        </is>
+      </c>
+      <c r="K4" s="2" t="inlineStr">
+        <is>
+          <t>1,23</t>
         </is>
       </c>
     </row>
@@ -639,7 +685,7 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>0,0; 9,87</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
@@ -649,22 +695,37 @@
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>-7,41; 19,76</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>-9,61; 23,02</t>
+          <t>-6,14; 9,06</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>-3,06; 11,88</t>
+          <t>-13,69; 0,0</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>-4,95; 11,09</t>
+          <t>-5,37; 14,45</t>
+        </is>
+      </c>
+      <c r="I5" s="2" t="inlineStr">
+        <is>
+          <t>-3,59; 4,9</t>
+        </is>
+      </c>
+      <c r="J5" s="2" t="inlineStr">
+        <is>
+          <t>-7,67; 0,0</t>
+        </is>
+      </c>
+      <c r="K5" s="2" t="inlineStr">
+        <is>
+          <t>-3,01; 7,13</t>
         </is>
       </c>
     </row>
@@ -677,7 +738,7 @@
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
-          <t>inf%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="D6" s="2" t="inlineStr">
@@ -687,22 +748,37 @@
       </c>
       <c r="E6" s="2" t="inlineStr">
         <is>
-          <t>27,54%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
-          <t>-0,24%</t>
+          <t>57,87%</t>
         </is>
       </c>
       <c r="G6" s="2" t="inlineStr">
         <is>
-          <t>52,46%</t>
+          <t>-100,0%</t>
         </is>
       </c>
       <c r="H6" s="2" t="inlineStr">
         <is>
-          <t>-13,37%</t>
+          <t>102,1%</t>
+        </is>
+      </c>
+      <c r="I6" s="2" t="inlineStr">
+        <is>
+          <t>51,01%</t>
+        </is>
+      </c>
+      <c r="J6" s="2" t="inlineStr">
+        <is>
+          <t>-100,0%</t>
+        </is>
+      </c>
+      <c r="K6" s="2" t="inlineStr">
+        <is>
+          <t>81,57%</t>
         </is>
       </c>
     </row>
@@ -725,7 +801,7 @@
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>-85,38; 725,0</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
@@ -735,12 +811,27 @@
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>-75,23; 654,33</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>-100,0; —</t>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="I7" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="J7" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="K7" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
         </is>
       </c>
     </row>
@@ -757,32 +848,47 @@
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
-          <t>-1,34</t>
+          <t>-1,78</t>
         </is>
       </c>
       <c r="D8" s="2" t="inlineStr">
         <is>
-          <t>-1,34</t>
+          <t>-1,78</t>
         </is>
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>-0,74</t>
+          <t>-1,78</t>
         </is>
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
-          <t>-2,71</t>
+          <t>-0,75</t>
         </is>
       </c>
       <c r="G8" s="2" t="inlineStr">
         <is>
-          <t>-1,28</t>
+          <t>-0,42</t>
         </is>
       </c>
       <c r="H8" s="2" t="inlineStr">
         <is>
-          <t>-2,41</t>
+          <t>0,95</t>
+        </is>
+      </c>
+      <c r="I8" s="2" t="inlineStr">
+        <is>
+          <t>-1,58</t>
+        </is>
+      </c>
+      <c r="J8" s="2" t="inlineStr">
+        <is>
+          <t>-1,66</t>
+        </is>
+      </c>
+      <c r="K8" s="2" t="inlineStr">
+        <is>
+          <t>-1,51</t>
         </is>
       </c>
     </row>
@@ -795,32 +901,47 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>-6,48; 0,0</t>
+          <t>-10,55; 0,0</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>-6,48; 0,0</t>
+          <t>-10,55; 0,0</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>-10,12; 8,01</t>
+          <t>-10,55; 0,0</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>-10,91; 5,69</t>
+          <t>-13,38; 11,13</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>-6,67; 3,18</t>
+          <t>-12,59; 11,84</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>-7,88; 1,79</t>
+          <t>-11,98; 15,2</t>
+        </is>
+      </c>
+      <c r="I9" s="2" t="inlineStr">
+        <is>
+          <t>-8,27; 5,22</t>
+        </is>
+      </c>
+      <c r="J9" s="2" t="inlineStr">
+        <is>
+          <t>-8,86; 4,84</t>
+        </is>
+      </c>
+      <c r="K9" s="2" t="inlineStr">
+        <is>
+          <t>-8,2; 6,55</t>
         </is>
       </c>
     </row>
@@ -843,22 +964,37 @@
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
-          <t>-6,76%</t>
+          <t>-100,0%</t>
         </is>
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
-          <t>-24,85%</t>
+          <t>-5,86%</t>
         </is>
       </c>
       <c r="G10" s="2" t="inlineStr">
         <is>
-          <t>-20,28%</t>
+          <t>-3,28%</t>
         </is>
       </c>
       <c r="H10" s="2" t="inlineStr">
         <is>
-          <t>-38,2%</t>
+          <t>7,4%</t>
+        </is>
+      </c>
+      <c r="I10" s="2" t="inlineStr">
+        <is>
+          <t>-21,79%</t>
+        </is>
+      </c>
+      <c r="J10" s="2" t="inlineStr">
+        <is>
+          <t>-22,89%</t>
+        </is>
+      </c>
+      <c r="K10" s="2" t="inlineStr">
+        <is>
+          <t>-20,82%</t>
         </is>
       </c>
     </row>
@@ -881,22 +1017,37 @@
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>-64,04; 131,62</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>-70,58; 96,75</t>
+          <t>-69,92; 193,44</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>-72,97; 98,86</t>
+          <t>-67,76; 211,4</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>-80,59; 60,91</t>
+          <t>-69,69; 269,3</t>
+        </is>
+      </c>
+      <c r="I11" s="2" t="inlineStr">
+        <is>
+          <t>-75,65; 153,44</t>
+        </is>
+      </c>
+      <c r="J11" s="2" t="inlineStr">
+        <is>
+          <t>-77,79; 139,66</t>
+        </is>
+      </c>
+      <c r="K11" s="2" t="inlineStr">
+        <is>
+          <t>-79,04; 190,53</t>
         </is>
       </c>
     </row>
@@ -913,32 +1064,47 @@
       </c>
       <c r="C12" s="2" t="inlineStr">
         <is>
-          <t>2,62</t>
+          <t>-3,32</t>
         </is>
       </c>
       <c r="D12" s="2" t="inlineStr">
         <is>
-          <t>-1,13</t>
+          <t>-3,32</t>
         </is>
       </c>
       <c r="E12" s="2" t="inlineStr">
         <is>
-          <t>-2,28</t>
+          <t>0,36</t>
         </is>
       </c>
       <c r="F12" s="2" t="inlineStr">
         <is>
-          <t>-3,21</t>
+          <t>-2,07</t>
         </is>
       </c>
       <c r="G12" s="2" t="inlineStr">
         <is>
-          <t>0,1</t>
+          <t>-4,91</t>
         </is>
       </c>
       <c r="H12" s="2" t="inlineStr">
         <is>
-          <t>-2,32</t>
+          <t>1,3</t>
+        </is>
+      </c>
+      <c r="I12" s="2" t="inlineStr">
+        <is>
+          <t>-2,68</t>
+        </is>
+      </c>
+      <c r="J12" s="2" t="inlineStr">
+        <is>
+          <t>-4,56</t>
+        </is>
+      </c>
+      <c r="K12" s="2" t="inlineStr">
+        <is>
+          <t>0,36</t>
         </is>
       </c>
     </row>
@@ -951,32 +1117,47 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>-2,41; 15,48</t>
+          <t>-10,05; 0,0</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>-4,26; 1,99</t>
+          <t>-10,05; 0,0</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>-9,17; 4,95</t>
+          <t>-5,16; 7,73</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>-10,4; 3,99</t>
+          <t>-11,93; 6,25</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>-4,75; 6,14</t>
+          <t>-13,81; 2,93</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>-6,96; 1,58</t>
+          <t>-8,58; 10,63</t>
+        </is>
+      </c>
+      <c r="I13" s="2" t="inlineStr">
+        <is>
+          <t>-9,15; 3,58</t>
+        </is>
+      </c>
+      <c r="J13" s="2" t="inlineStr">
+        <is>
+          <t>-10,53; 1,21</t>
+        </is>
+      </c>
+      <c r="K13" s="2" t="inlineStr">
+        <is>
+          <t>-6,26; 7,49</t>
         </is>
       </c>
     </row>
@@ -989,32 +1170,47 @@
       </c>
       <c r="C14" s="2" t="inlineStr">
         <is>
-          <t>125,6%</t>
+          <t>-100,0%</t>
         </is>
       </c>
       <c r="D14" s="2" t="inlineStr">
         <is>
-          <t>-54,18%</t>
+          <t>-100,0%</t>
         </is>
       </c>
       <c r="E14" s="2" t="inlineStr">
         <is>
-          <t>-17,24%</t>
+          <t>10,8%</t>
         </is>
       </c>
       <c r="F14" s="2" t="inlineStr">
         <is>
-          <t>-24,29%</t>
+          <t>-14,41%</t>
         </is>
       </c>
       <c r="G14" s="2" t="inlineStr">
         <is>
-          <t>1,28%</t>
+          <t>-34,18%</t>
         </is>
       </c>
       <c r="H14" s="2" t="inlineStr">
         <is>
-          <t>-29,34%</t>
+          <t>9,07%</t>
+        </is>
+      </c>
+      <c r="I14" s="2" t="inlineStr">
+        <is>
+          <t>-26,32%</t>
+        </is>
+      </c>
+      <c r="J14" s="2" t="inlineStr">
+        <is>
+          <t>-44,84%</t>
+        </is>
+      </c>
+      <c r="K14" s="2" t="inlineStr">
+        <is>
+          <t>3,51%</t>
         </is>
       </c>
     </row>
@@ -1037,22 +1233,37 @@
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>-54,21; 58,35</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>-60,09; 41,4</t>
+          <t>-59,89; 66,61</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
         <is>
-          <t>-48,55; 112,27</t>
+          <t>-71,56; 32,43</t>
         </is>
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t>-66,91; 28,12</t>
+          <t>-45,33; 108,62</t>
+        </is>
+      </c>
+      <c r="I15" s="2" t="inlineStr">
+        <is>
+          <t>-65,23; 61,19</t>
+        </is>
+      </c>
+      <c r="J15" s="2" t="inlineStr">
+        <is>
+          <t>-74,2; 26,99</t>
+        </is>
+      </c>
+      <c r="K15" s="2" t="inlineStr">
+        <is>
+          <t>-46,92; 113,02</t>
         </is>
       </c>
     </row>
@@ -1069,32 +1280,47 @@
       </c>
       <c r="C16" s="2" t="inlineStr">
         <is>
-          <t>0,48</t>
+          <t>2,14</t>
         </is>
       </c>
       <c r="D16" s="2" t="inlineStr">
         <is>
-          <t>-1,49</t>
+          <t>-1,38</t>
         </is>
       </c>
       <c r="E16" s="2" t="inlineStr">
         <is>
-          <t>1,06</t>
+          <t>6,77</t>
         </is>
       </c>
       <c r="F16" s="2" t="inlineStr">
         <is>
-          <t>-0,96</t>
+          <t>-5,1</t>
         </is>
       </c>
       <c r="G16" s="2" t="inlineStr">
         <is>
-          <t>0,69</t>
+          <t>-8,78</t>
         </is>
       </c>
       <c r="H16" s="2" t="inlineStr">
         <is>
-          <t>-1,5</t>
+          <t>-7,59</t>
+        </is>
+      </c>
+      <c r="I16" s="2" t="inlineStr">
+        <is>
+          <t>-1,85</t>
+        </is>
+      </c>
+      <c r="J16" s="2" t="inlineStr">
+        <is>
+          <t>-5,63</t>
+        </is>
+      </c>
+      <c r="K16" s="2" t="inlineStr">
+        <is>
+          <t>-1,19</t>
         </is>
       </c>
     </row>
@@ -1107,32 +1333,47 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>-6,29; 6,61</t>
+          <t>-5,15; 10,02</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>-7,45; 4,33</t>
+          <t>-7,94; 4,64</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>-7,51; 10,14</t>
+          <t>-1,78; 15,38</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>-9,33; 7,63</t>
+          <t>-18,06; 6,71</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
         <is>
-          <t>-5,45; 5,68</t>
+          <t>-20,47; 2,42</t>
         </is>
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>-7,3; 3,92</t>
+          <t>-18,18; 4,85</t>
+        </is>
+      </c>
+      <c r="I17" s="2" t="inlineStr">
+        <is>
+          <t>-9,58; 5,34</t>
+        </is>
+      </c>
+      <c r="J17" s="2" t="inlineStr">
+        <is>
+          <t>-12,83; 1,42</t>
+        </is>
+      </c>
+      <c r="K17" s="2" t="inlineStr">
+        <is>
+          <t>-9,1; 6,63</t>
         </is>
       </c>
     </row>
@@ -1145,32 +1386,47 @@
       </c>
       <c r="C18" s="2" t="inlineStr">
         <is>
-          <t>7,12%</t>
+          <t>42,19%</t>
         </is>
       </c>
       <c r="D18" s="2" t="inlineStr">
         <is>
-          <t>-22,38%</t>
+          <t>-27,23%</t>
         </is>
       </c>
       <c r="E18" s="2" t="inlineStr">
         <is>
-          <t>4,86%</t>
+          <t>133,14%</t>
         </is>
       </c>
       <c r="F18" s="2" t="inlineStr">
         <is>
-          <t>-4,39%</t>
+          <t>-18,12%</t>
         </is>
       </c>
       <c r="G18" s="2" t="inlineStr">
         <is>
-          <t>4,57%</t>
+          <t>-31,21%</t>
         </is>
       </c>
       <c r="H18" s="2" t="inlineStr">
         <is>
-          <t>-9,91%</t>
+          <t>-26,95%</t>
+        </is>
+      </c>
+      <c r="I18" s="2" t="inlineStr">
+        <is>
+          <t>-10,52%</t>
+        </is>
+      </c>
+      <c r="J18" s="2" t="inlineStr">
+        <is>
+          <t>-32,08%</t>
+        </is>
+      </c>
+      <c r="K18" s="2" t="inlineStr">
+        <is>
+          <t>-6,79%</t>
         </is>
       </c>
     </row>
@@ -1183,32 +1439,47 @@
       </c>
       <c r="C19" s="2" t="inlineStr">
         <is>
-          <t>-67,04; 189,6</t>
+          <t>-69,31; 677,91</t>
         </is>
       </c>
       <c r="D19" s="2" t="inlineStr">
         <is>
-          <t>-77,21; 131,77</t>
+          <t>-100,0; 407,72</t>
         </is>
       </c>
       <c r="E19" s="2" t="inlineStr">
         <is>
-          <t>-28,67; 55,2</t>
+          <t>-36,6; 939,77</t>
         </is>
       </c>
       <c r="F19" s="2" t="inlineStr">
         <is>
-          <t>-36,6; 41,45</t>
+          <t>-51,66; 32,21</t>
         </is>
       </c>
       <c r="G19" s="2" t="inlineStr">
         <is>
-          <t>-29,0; 46,93</t>
+          <t>-58,84; 15,1</t>
         </is>
       </c>
       <c r="H19" s="2" t="inlineStr">
         <is>
-          <t>-40,17; 31,44</t>
+          <t>-55,57; 21,26</t>
+        </is>
+      </c>
+      <c r="I19" s="2" t="inlineStr">
+        <is>
+          <t>-46,36; 37,49</t>
+        </is>
+      </c>
+      <c r="J19" s="2" t="inlineStr">
+        <is>
+          <t>-59,27; 11,81</t>
+        </is>
+      </c>
+      <c r="K19" s="2" t="inlineStr">
+        <is>
+          <t>-42,14; 49,89</t>
         </is>
       </c>
     </row>
@@ -1225,32 +1496,47 @@
       </c>
       <c r="C20" s="2" t="inlineStr">
         <is>
-          <t>0,25</t>
+          <t>2,51</t>
         </is>
       </c>
       <c r="D20" s="2" t="inlineStr">
         <is>
-          <t>1,11</t>
+          <t>0,19</t>
         </is>
       </c>
       <c r="E20" s="2" t="inlineStr">
         <is>
-          <t>-1,35</t>
+          <t>7,5</t>
         </is>
       </c>
       <c r="F20" s="2" t="inlineStr">
         <is>
-          <t>-0,35</t>
+          <t>-0,75</t>
         </is>
       </c>
       <c r="G20" s="2" t="inlineStr">
         <is>
-          <t>-0,54</t>
+          <t>-1,34</t>
         </is>
       </c>
       <c r="H20" s="2" t="inlineStr">
         <is>
-          <t>0,42</t>
+          <t>8,02</t>
+        </is>
+      </c>
+      <c r="I20" s="2" t="inlineStr">
+        <is>
+          <t>1,07</t>
+        </is>
+      </c>
+      <c r="J20" s="2" t="inlineStr">
+        <is>
+          <t>-0,28</t>
+        </is>
+      </c>
+      <c r="K20" s="2" t="inlineStr">
+        <is>
+          <t>8,71</t>
         </is>
       </c>
     </row>
@@ -1263,32 +1549,47 @@
       </c>
       <c r="C21" s="2" t="inlineStr">
         <is>
-          <t>-5,47; 5,86</t>
+          <t>-6,15; 11,61</t>
         </is>
       </c>
       <c r="D21" s="2" t="inlineStr">
         <is>
-          <t>-5,33; 7,45</t>
+          <t>-7,7; 7,99</t>
         </is>
       </c>
       <c r="E21" s="2" t="inlineStr">
         <is>
-          <t>-11,99; 9,93</t>
+          <t>-2,37; 18,76</t>
         </is>
       </c>
       <c r="F21" s="2" t="inlineStr">
         <is>
-          <t>-12,49; 9,56</t>
+          <t>-18,26; 14,31</t>
         </is>
       </c>
       <c r="G21" s="2" t="inlineStr">
         <is>
-          <t>-7,41; 5,16</t>
+          <t>-18,62; 13,26</t>
         </is>
       </c>
       <c r="H21" s="2" t="inlineStr">
         <is>
-          <t>-5,94; 6,56</t>
+          <t>-11,25; 24,11</t>
+        </is>
+      </c>
+      <c r="I21" s="2" t="inlineStr">
+        <is>
+          <t>-8,76; 9,88</t>
+        </is>
+      </c>
+      <c r="J21" s="2" t="inlineStr">
+        <is>
+          <t>-9,3; 8,42</t>
+        </is>
+      </c>
+      <c r="K21" s="2" t="inlineStr">
+        <is>
+          <t>-1,59; 19,38</t>
         </is>
       </c>
     </row>
@@ -1301,32 +1602,47 @@
       </c>
       <c r="C22" s="2" t="inlineStr">
         <is>
-          <t>4,35%</t>
+          <t>44,96%</t>
         </is>
       </c>
       <c r="D22" s="2" t="inlineStr">
         <is>
-          <t>19,61%</t>
+          <t>3,4%</t>
         </is>
       </c>
       <c r="E22" s="2" t="inlineStr">
         <is>
-          <t>-6,36%</t>
+          <t>134,48%</t>
         </is>
       </c>
       <c r="F22" s="2" t="inlineStr">
         <is>
-          <t>-1,65%</t>
+          <t>-3,0%</t>
         </is>
       </c>
       <c r="G22" s="2" t="inlineStr">
         <is>
-          <t>-4,09%</t>
+          <t>-5,38%</t>
         </is>
       </c>
       <c r="H22" s="2" t="inlineStr">
         <is>
-          <t>3,22%</t>
+          <t>32,18%</t>
+        </is>
+      </c>
+      <c r="I22" s="2" t="inlineStr">
+        <is>
+          <t>7,83%</t>
+        </is>
+      </c>
+      <c r="J22" s="2" t="inlineStr">
+        <is>
+          <t>-2,05%</t>
+        </is>
+      </c>
+      <c r="K22" s="2" t="inlineStr">
+        <is>
+          <t>63,65%</t>
         </is>
       </c>
     </row>
@@ -1339,32 +1655,47 @@
       </c>
       <c r="C23" s="2" t="inlineStr">
         <is>
-          <t>-64,0; 196,31</t>
+          <t>-73,25; 667,76</t>
         </is>
       </c>
       <c r="D23" s="2" t="inlineStr">
         <is>
-          <t>-66,1; 254,51</t>
+          <t>-86,44; 503,46</t>
         </is>
       </c>
       <c r="E23" s="2" t="inlineStr">
         <is>
-          <t>-46,67; 65,45</t>
+          <t>-47,75; 906,48</t>
         </is>
       </c>
       <c r="F23" s="2" t="inlineStr">
         <is>
-          <t>-47,2; 59,17</t>
+          <t>-56,66; 82,62</t>
         </is>
       </c>
       <c r="G23" s="2" t="inlineStr">
         <is>
-          <t>-43,94; 51,8</t>
+          <t>-55,54; 78,74</t>
         </is>
       </c>
       <c r="H23" s="2" t="inlineStr">
         <is>
-          <t>-37,37; 65,96</t>
+          <t>-36,42; 135,84</t>
+        </is>
+      </c>
+      <c r="I23" s="2" t="inlineStr">
+        <is>
+          <t>-46,57; 106,85</t>
+        </is>
+      </c>
+      <c r="J23" s="2" t="inlineStr">
+        <is>
+          <t>-51,29; 98,23</t>
+        </is>
+      </c>
+      <c r="K23" s="2" t="inlineStr">
+        <is>
+          <t>-11,56; 215,17</t>
         </is>
       </c>
     </row>
@@ -1381,32 +1712,47 @@
       </c>
       <c r="C24" s="2" t="inlineStr">
         <is>
-          <t>-5,49</t>
+          <t>-10,6</t>
         </is>
       </c>
       <c r="D24" s="2" t="inlineStr">
         <is>
-          <t>-5,3</t>
+          <t>-2,58</t>
         </is>
       </c>
       <c r="E24" s="2" t="inlineStr">
         <is>
-          <t>-9,52</t>
+          <t>15,01</t>
         </is>
       </c>
       <c r="F24" s="2" t="inlineStr">
         <is>
-          <t>-7,82</t>
+          <t>0,65</t>
         </is>
       </c>
       <c r="G24" s="2" t="inlineStr">
         <is>
-          <t>-7,37</t>
+          <t>7,18</t>
         </is>
       </c>
       <c r="H24" s="2" t="inlineStr">
         <is>
-          <t>-5,98</t>
+          <t>24,8</t>
+        </is>
+      </c>
+      <c r="I24" s="2" t="inlineStr">
+        <is>
+          <t>-4,62</t>
+        </is>
+      </c>
+      <c r="J24" s="2" t="inlineStr">
+        <is>
+          <t>2,7</t>
+        </is>
+      </c>
+      <c r="K24" s="2" t="inlineStr">
+        <is>
+          <t>20,76</t>
         </is>
       </c>
     </row>
@@ -1419,32 +1765,47 @@
       </c>
       <c r="C25" s="2" t="inlineStr">
         <is>
-          <t>-15,81; 4,82</t>
+          <t>-24,99; 0,73</t>
         </is>
       </c>
       <c r="D25" s="2" t="inlineStr">
         <is>
-          <t>-15,04; 6,5</t>
+          <t>-18,44; 11,12</t>
         </is>
       </c>
       <c r="E25" s="2" t="inlineStr">
         <is>
-          <t>-24,09; 5,03</t>
+          <t>-5,38; 32,4</t>
         </is>
       </c>
       <c r="F25" s="2" t="inlineStr">
         <is>
-          <t>-25,77; 9,28</t>
+          <t>-17,06; 22,68</t>
         </is>
       </c>
       <c r="G25" s="2" t="inlineStr">
         <is>
-          <t>-16,64; 2,43</t>
+          <t>-11,87; 27,78</t>
         </is>
       </c>
       <c r="H25" s="2" t="inlineStr">
         <is>
-          <t>-16,72; 5,14</t>
+          <t>2,71; 44,5</t>
+        </is>
+      </c>
+      <c r="I25" s="2" t="inlineStr">
+        <is>
+          <t>-17,0; 7,39</t>
+        </is>
+      </c>
+      <c r="J25" s="2" t="inlineStr">
+        <is>
+          <t>-9,69; 15,03</t>
+        </is>
+      </c>
+      <c r="K25" s="2" t="inlineStr">
+        <is>
+          <t>6,92; 36,4</t>
         </is>
       </c>
     </row>
@@ -1457,32 +1818,47 @@
       </c>
       <c r="C26" s="2" t="inlineStr">
         <is>
-          <t>-34,18%</t>
+          <t>-68,88%</t>
         </is>
       </c>
       <c r="D26" s="2" t="inlineStr">
         <is>
-          <t>-32,99%</t>
+          <t>-16,74%</t>
         </is>
       </c>
       <c r="E26" s="2" t="inlineStr">
         <is>
-          <t>-25,73%</t>
+          <t>97,51%</t>
         </is>
       </c>
       <c r="F26" s="2" t="inlineStr">
         <is>
-          <t>-21,13%</t>
+          <t>2,14%</t>
         </is>
       </c>
       <c r="G26" s="2" t="inlineStr">
         <is>
-          <t>-26,55%</t>
+          <t>23,81%</t>
         </is>
       </c>
       <c r="H26" s="2" t="inlineStr">
         <is>
-          <t>-21,52%</t>
+          <t>82,29%</t>
+        </is>
+      </c>
+      <c r="I26" s="2" t="inlineStr">
+        <is>
+          <t>-19,57%</t>
+        </is>
+      </c>
+      <c r="J26" s="2" t="inlineStr">
+        <is>
+          <t>11,45%</t>
+        </is>
+      </c>
+      <c r="K26" s="2" t="inlineStr">
+        <is>
+          <t>87,93%</t>
         </is>
       </c>
     </row>
@@ -1495,32 +1871,47 @@
       </c>
       <c r="C27" s="2" t="inlineStr">
         <is>
-          <t>-73,01; 56,23</t>
+          <t>-100,0; 63,47</t>
         </is>
       </c>
       <c r="D27" s="2" t="inlineStr">
         <is>
-          <t>-71,63; 76,52</t>
+          <t>-79,46; 183,09</t>
         </is>
       </c>
       <c r="E27" s="2" t="inlineStr">
         <is>
-          <t>-54,59; 16,14</t>
+          <t>-24,97; 405,74</t>
         </is>
       </c>
       <c r="F27" s="2" t="inlineStr">
         <is>
-          <t>-60,52; 27,46</t>
+          <t>-45,09; 116,55</t>
         </is>
       </c>
       <c r="G27" s="2" t="inlineStr">
         <is>
-          <t>-51,41; 11,84</t>
+          <t>-32,64; 139,28</t>
         </is>
       </c>
       <c r="H27" s="2" t="inlineStr">
         <is>
-          <t>-53,19; 22,34</t>
+          <t>4,97; 226,23</t>
+        </is>
+      </c>
+      <c r="I27" s="2" t="inlineStr">
+        <is>
+          <t>-56,17; 44,77</t>
+        </is>
+      </c>
+      <c r="J27" s="2" t="inlineStr">
+        <is>
+          <t>-33,89; 86,75</t>
+        </is>
+      </c>
+      <c r="K27" s="2" t="inlineStr">
+        <is>
+          <t>20,69; 223,77</t>
         </is>
       </c>
     </row>
@@ -1537,32 +1928,47 @@
       </c>
       <c r="C28" s="2" t="inlineStr">
         <is>
-          <t>-0,07</t>
+          <t>-1,41</t>
         </is>
       </c>
       <c r="D28" s="2" t="inlineStr">
         <is>
-          <t>-1,58</t>
+          <t>-1,78</t>
         </is>
       </c>
       <c r="E28" s="2" t="inlineStr">
         <is>
+          <t>3,95</t>
+        </is>
+      </c>
+      <c r="F28" s="2" t="inlineStr">
+        <is>
+          <t>-1,63</t>
+        </is>
+      </c>
+      <c r="G28" s="2" t="inlineStr">
+        <is>
+          <t>-2,87</t>
+        </is>
+      </c>
+      <c r="H28" s="2" t="inlineStr">
+        <is>
+          <t>5,03</t>
+        </is>
+      </c>
+      <c r="I28" s="2" t="inlineStr">
+        <is>
           <t>-1,71</t>
         </is>
       </c>
-      <c r="F28" s="2" t="inlineStr">
-        <is>
-          <t>-2,32</t>
-        </is>
-      </c>
-      <c r="G28" s="2" t="inlineStr">
-        <is>
-          <t>-1,0</t>
-        </is>
-      </c>
-      <c r="H28" s="2" t="inlineStr">
-        <is>
-          <t>-2,2</t>
+      <c r="J28" s="2" t="inlineStr">
+        <is>
+          <t>-2,7</t>
+        </is>
+      </c>
+      <c r="K28" s="2" t="inlineStr">
+        <is>
+          <t>4,1</t>
         </is>
       </c>
     </row>
@@ -1575,32 +1981,47 @@
       </c>
       <c r="C29" s="2" t="inlineStr">
         <is>
-          <t>-2,54; 3,13</t>
+          <t>-4,52; 1,48</t>
         </is>
       </c>
       <c r="D29" s="2" t="inlineStr">
         <is>
-          <t>-3,83; 0,37</t>
+          <t>-4,92; 1,1</t>
         </is>
       </c>
       <c r="E29" s="2" t="inlineStr">
         <is>
-          <t>-5,89; 2,43</t>
+          <t>0,23; 8,18</t>
         </is>
       </c>
       <c r="F29" s="2" t="inlineStr">
         <is>
-          <t>-6,54; 2,19</t>
+          <t>-6,63; 3,87</t>
         </is>
       </c>
       <c r="G29" s="2" t="inlineStr">
         <is>
-          <t>-3,5; 1,91</t>
+          <t>-7,93; 2,33</t>
         </is>
       </c>
       <c r="H29" s="2" t="inlineStr">
         <is>
-          <t>-4,87; 0,47</t>
+          <t>-1,73; 11,18</t>
+        </is>
+      </c>
+      <c r="I29" s="2" t="inlineStr">
+        <is>
+          <t>-4,83; 1,57</t>
+        </is>
+      </c>
+      <c r="J29" s="2" t="inlineStr">
+        <is>
+          <t>-5,76; 0,6</t>
+        </is>
+      </c>
+      <c r="K29" s="2" t="inlineStr">
+        <is>
+          <t>-0,07; 7,87</t>
         </is>
       </c>
     </row>
@@ -1613,32 +2034,47 @@
       </c>
       <c r="C30" s="2" t="inlineStr">
         <is>
-          <t>-1,48%</t>
+          <t>-28,85%</t>
         </is>
       </c>
       <c r="D30" s="2" t="inlineStr">
         <is>
-          <t>-31,79%</t>
+          <t>-36,51%</t>
         </is>
       </c>
       <c r="E30" s="2" t="inlineStr">
         <is>
-          <t>-9,22%</t>
+          <t>81,08%</t>
         </is>
       </c>
       <c r="F30" s="2" t="inlineStr">
         <is>
-          <t>-12,52%</t>
+          <t>-8,7%</t>
         </is>
       </c>
       <c r="G30" s="2" t="inlineStr">
         <is>
-          <t>-8,27%</t>
+          <t>-15,29%</t>
         </is>
       </c>
       <c r="H30" s="2" t="inlineStr">
         <is>
-          <t>-18,18%</t>
+          <t>26,8%</t>
+        </is>
+      </c>
+      <c r="I30" s="2" t="inlineStr">
+        <is>
+          <t>-13,84%</t>
+        </is>
+      </c>
+      <c r="J30" s="2" t="inlineStr">
+        <is>
+          <t>-21,87%</t>
+        </is>
+      </c>
+      <c r="K30" s="2" t="inlineStr">
+        <is>
+          <t>33,23%</t>
         </is>
       </c>
     </row>
@@ -1651,43 +2087,65 @@
       </c>
       <c r="C31" s="2" t="inlineStr">
         <is>
-          <t>-41,8; 85,09</t>
+          <t>-67,27; 45,7</t>
         </is>
       </c>
       <c r="D31" s="2" t="inlineStr">
         <is>
-          <t>-60,32; 12,59</t>
+          <t>-71,48; 37,58</t>
         </is>
       </c>
       <c r="E31" s="2" t="inlineStr">
         <is>
-          <t>-28,61; 15,03</t>
+          <t>-1,21; 235,49</t>
         </is>
       </c>
       <c r="F31" s="2" t="inlineStr">
         <is>
-          <t>-32,46; 13,34</t>
+          <t>-31,41; 24,91</t>
         </is>
       </c>
       <c r="G31" s="2" t="inlineStr">
         <is>
-          <t>-26,47; 17,35</t>
+          <t>-36,97; 15,07</t>
         </is>
       </c>
       <c r="H31" s="2" t="inlineStr">
         <is>
-          <t>-36,05; 5,01</t>
+          <t>-8,22; 71,51</t>
+        </is>
+      </c>
+      <c r="I31" s="2" t="inlineStr">
+        <is>
+          <t>-34,72; 13,91</t>
+        </is>
+      </c>
+      <c r="J31" s="2" t="inlineStr">
+        <is>
+          <t>-41,37; 6,74</t>
+        </is>
+      </c>
+      <c r="K31" s="2" t="inlineStr">
+        <is>
+          <t>-1,25; 74,33</t>
+        </is>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" t="inlineStr">
+        <is>
+          <t>Fuente: Encuesta Sanitaria y Social de Andalucía (Panel 1 en Medición 4)</t>
         </is>
       </c>
     </row>
   </sheetData>
   <mergeCells count="11">
     <mergeCell ref="A4:A7"/>
+    <mergeCell ref="C1:E1"/>
     <mergeCell ref="A8:A11"/>
-    <mergeCell ref="C1:D1"/>
-    <mergeCell ref="G1:H1"/>
-    <mergeCell ref="E1:F1"/>
+    <mergeCell ref="F1:H1"/>
     <mergeCell ref="A12:A15"/>
+    <mergeCell ref="I1:K1"/>
     <mergeCell ref="A28:A31"/>
     <mergeCell ref="A20:A23"/>
     <mergeCell ref="A1:B2"/>
